--- a/molgenis-bootstrap/src/main/resources/i18n.xlsx
+++ b/molgenis-bootstrap/src/main/resources/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2655" windowWidth="13695" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="i18nstrings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>msgid</t>
   </si>
@@ -238,6 +238,36 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_button</t>
+  </si>
+  <si>
+    <t>Go to sample / data negotiation</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_dialog_yes</t>
+  </si>
+  <si>
+    <t>Yes, Send to Negotiator</t>
+  </si>
+  <si>
+    <t>No, I want to keep filtering</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_dialog_no</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_dialog_title</t>
+  </si>
+  <si>
+    <t>Send request to the BBMRI Negotiator?</t>
+  </si>
+  <si>
+    <t>Your current selection of biobanks along with your filtering criteria will be sent to the BBMRI Negotiator. Are you sure?</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_dialog_message</t>
   </si>
 </sst>
 </file>
@@ -293,8 +323,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -377,6 +409,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -402,6 +435,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,19 +770,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.875" customWidth="1"/>
-    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -764,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -772,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -780,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -788,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -796,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -804,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -812,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -820,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -828,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -836,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -844,209 +878,249 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/molgenis-bootstrap/src/main/resources/i18n.xlsx
+++ b/molgenis-bootstrap/src/main/resources/i18n.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>msgid</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>dataexplorer_directory_export_dialog_message</t>
+  </si>
+  <si>
+    <t>dataexplorer_directory_export_no_filters</t>
+  </si>
+  <si>
+    <t>Please filter the collections before sending a request to the negotiator.</t>
   </si>
 </sst>
 </file>
@@ -323,8 +329,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -410,6 +424,10 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -436,6 +454,10 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -920,201 +942,209 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
     </row>

--- a/molgenis-bootstrap/src/main/resources/i18n.xlsx
+++ b/molgenis-bootstrap/src/main/resources/i18n.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="i18nstrings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>msgid</t>
   </si>
@@ -238,42 +238,6 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_button</t>
-  </si>
-  <si>
-    <t>Go to sample / data negotiation</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_dialog_yes</t>
-  </si>
-  <si>
-    <t>Yes, Send to Negotiator</t>
-  </si>
-  <si>
-    <t>No, I want to keep filtering</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_dialog_no</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_dialog_title</t>
-  </si>
-  <si>
-    <t>Send request to the BBMRI Negotiator?</t>
-  </si>
-  <si>
-    <t>Your current selection of biobanks along with your filtering criteria will be sent to the BBMRI Negotiator. Are you sure?</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_dialog_message</t>
-  </si>
-  <si>
-    <t>dataexplorer_directory_export_no_filters</t>
-  </si>
-  <si>
-    <t>Please filter the collections before sending a request to the negotiator.</t>
   </si>
 </sst>
 </file>
@@ -792,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -902,255 +866,206 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>28</v>
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
